--- a/Data/Fringe_data.xlsx
+++ b/Data/Fringe_data.xlsx
@@ -19,37 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>wt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wavelen/OD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">radian fringe </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>convert deg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deg fringe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,15 +37,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wavelen/OD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rad_Fringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deg_Fringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fractions of hr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>convert deg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deg fringe</t>
+    <t>Obv_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -457,48 +441,36 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>37</v>
       </c>
@@ -510,47 +482,31 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D25" si="0">+B2+C2</f>
+        <f>B2+C2</f>
         <v>0.6166666666666667</v>
       </c>
       <c r="E2">
-        <f>(PI()/12)*+D2</f>
+        <f>(PI()/12)*D2</f>
         <v>0.16144295580947549</v>
       </c>
       <c r="F2">
-        <f>430*SIN(+E2)</f>
+        <f>430*SIN(E2)</f>
         <v>69.119303209645224</v>
       </c>
       <c r="G2">
-        <f>(174248/+F2)</f>
-        <v>2520.9744877127846</v>
+        <f>(0.174248/F2)</f>
+        <v>2.5209744877127843E-3</v>
       </c>
       <c r="H2">
-        <f>SIN(+G2)</f>
-        <v>0.98822412517428859</v>
+        <f>ASIN(G2)</f>
+        <v>2.5209771579838107E-3</v>
       </c>
       <c r="I2">
-        <f>1/+H2</f>
-        <v>1.0119161984874985</v>
-      </c>
-      <c r="J2">
-        <f>I2*57.29</f>
-        <v>57.972679011348788</v>
-      </c>
-      <c r="K2">
-        <f>1/J2</f>
-        <v>1.7249504715906593E-2</v>
-      </c>
-      <c r="L2">
-        <f>DEGREES($H2)</f>
-        <v>56.621071585494704</v>
-      </c>
-      <c r="M2">
-        <f>1/+L2</f>
-        <v>1.7661269417871314E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <f>H2*57.29</f>
+        <v>0.14442678138089252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>8</v>
       </c>
@@ -558,51 +514,35 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>+A3/60</f>
+        <f t="shared" ref="C3:C25" si="0">+A3/60</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D26" si="1">B3+C3</f>
         <v>1.1333333333333333</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">(PI()/12)*+D3</f>
+        <f t="shared" ref="E3:E25" si="2">(PI()/12)*D3</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="2">430*SIN(+E3)</f>
+        <f t="shared" ref="F3:F25" si="3">430*SIN(E3)</f>
         <v>125.71983303077678</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G25" si="3">(174248/+F3)</f>
-        <v>1386.0024770900172</v>
+        <f t="shared" ref="G3:G25" si="4">(0.174248/F3)</f>
+        <v>1.3860024770900171E-3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H25" si="4">SIN(+G3)</f>
-        <v>-0.53128520191522877</v>
+        <f t="shared" ref="H3:H25" si="5">ASIN(G3)</f>
+        <v>1.3860029208428559E-3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I25" si="5">1/+H3</f>
-        <v>-1.8822282201632992</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J25" si="6">I3*57.29</f>
-        <v>-107.8328547331554</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K25" si="7">1/J3</f>
-        <v>-9.2736114839453449E-3</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L25" si="8">DEGREES($H3)</f>
-        <v>-30.440399787498368</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M23" si="9">1/+L3</f>
-        <v>-3.2851079715802291E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <f t="shared" ref="I3:I25" si="6">H3*57.29</f>
+        <v>7.940410733508721E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>39</v>
       </c>
@@ -610,51 +550,35 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C25" si="10">+A4/60</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.65</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4319689898685965</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180.02368714109406</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
-        <v>967.91707117648718</v>
+        <f t="shared" si="4"/>
+        <v>9.6791707117648712E-4</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
-        <v>0.30175589939442932</v>
+        <f t="shared" si="5"/>
+        <v>9.6791722231090633E-4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="5"/>
-        <v>3.3139368675370489</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="6"/>
-        <v>189.85544314119753</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="7"/>
-        <v>5.2671652887838951E-3</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="8"/>
-        <v>17.289339478475075</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="9"/>
-        <v>5.7839109541748687E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>5.5451977666191823E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>10</v>
       </c>
@@ -662,51 +586,35 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D5">
-        <f>+B5+C5</f>
+        <f t="shared" si="1"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.567232006898157</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>231.03883158913422</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>754.19356478512816</v>
+        <f t="shared" si="4"/>
+        <v>7.5419356478512807E-4</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
-        <v>0.20975846597877446</v>
+        <f t="shared" si="5"/>
+        <v>7.5419363628369349E-4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="5"/>
-        <v>4.7673880304845024</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="6"/>
-        <v>273.12366026645714</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="7"/>
-        <v>3.6613451907623398E-3</v>
-      </c>
-      <c r="L5">
-        <f>DEGREES($H5)</f>
-        <v>12.01827481772224</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="9"/>
-        <v>8.3206617852122369E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>4.3207753422692799E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>41</v>
       </c>
@@ -714,51 +622,35 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.68333333333333335</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6833333333333336</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70249502392771768</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>277.83331124647447</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>627.16741638449264</v>
+        <f t="shared" si="4"/>
+        <v>6.2716741638449262E-4</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
-        <v>-0.91321856468487139</v>
+        <f t="shared" si="5"/>
+        <v>6.2716745749939729E-4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
-        <v>-1.0950281112003835</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="6"/>
-        <v>-62.734160490669964</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="7"/>
-        <v>-1.5940278664424358E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="8"/>
-        <v>-52.323569529437897</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="9"/>
-        <v>-1.9111845942341291E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>3.5930423640140471E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>12</v>
       </c>
@@ -766,51 +658,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="D7">
-        <f>+B7+C7</f>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83775804095727813</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>319.55227495527947</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>545.287934577795</v>
+        <f t="shared" si="4"/>
+        <v>5.4528793457779502E-4</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>-0.97554501522122972</v>
+        <f t="shared" si="5"/>
+        <v>5.4528796160035402E-4</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
-        <v>-1.025068022897154</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>-58.726147031777955</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="7"/>
-        <v>-1.7028190176666604E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="8"/>
-        <v>-55.894612097202113</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="9"/>
-        <v>-1.7890812056463961E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>3.1239547320084281E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>43</v>
       </c>
@@ -818,51 +694,35 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.71666666666666667</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7166666666666668</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97302105798683869</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>355.43359212469107</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>490.24066340603889</v>
+        <f t="shared" si="4"/>
+        <v>4.9024066340603884E-4</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>0.1516224022777051</v>
+        <f t="shared" si="5"/>
+        <v>4.9024068304311347E-4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
-        <v>6.5953314614316874</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="6"/>
-        <v>377.84653942542138</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="7"/>
-        <v>2.6465771038175091E-3</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="8"/>
-        <v>8.6873237301472628</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="9"/>
-        <v>0.11511024926235235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.8085888731539971E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>14</v>
       </c>
@@ -870,51 +730,35 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2333333333333334</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1082840750163991</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>384.82177548887074</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>452.80181917626265</v>
+        <f t="shared" si="4"/>
+        <v>4.5280181917626265E-4</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0.40087986545685317</v>
+        <f t="shared" si="5"/>
+        <v>4.5280183464921825E-4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
-        <v>2.4945129106456219</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="6"/>
-        <v>142.91064465088766</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="7"/>
-        <v>6.9973793935565222E-3</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="8"/>
-        <v>22.968724382449967</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="9"/>
-        <v>4.3537463524273207E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.5941017107053713E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>44</v>
       </c>
@@ -922,51 +766,35 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7333333333333334</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2391837689159739</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>406.57298750770622</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>428.57741501259301</v>
+        <f t="shared" si="4"/>
+        <v>4.2857741501259295E-4</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0.96891682475048968</v>
+        <f t="shared" si="5"/>
+        <v>4.2857742813267734E-4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
-        <v>1.0320803338898721</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="6"/>
-        <v>59.127882328550768</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="7"/>
-        <v>1.6912494759128812E-2</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="8"/>
-        <v>55.51484475741988</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="9"/>
-        <v>1.8013199971460683E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.4553200857721086E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>16</v>
       </c>
@@ -974,51 +802,35 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2666666666666666</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>422.09968888249551</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>412.8124340989678</v>
+        <f t="shared" si="4"/>
+        <v>4.128124340989678E-4</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
-        <v>-0.95324450483165812</v>
+        <f t="shared" si="5"/>
+        <v>4.1281244582381231E-4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
-        <v>-1.0490487959084525</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="6"/>
-        <v>-60.100005517595243</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="7"/>
-        <v>-1.6638933580584013E-2</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="8"/>
-        <v>-54.616886970892018</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="9"/>
-        <v>-1.8309355502684515E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.3650025021246208E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>47</v>
       </c>
@@ -1026,51 +838,35 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7833333333333332</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5140731261050806</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>429.30841833965997</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>405.88069685169455</v>
+        <f t="shared" si="4"/>
+        <v>4.0588069685169452E-4</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
-        <v>-0.57715823767698649</v>
+        <f t="shared" si="5"/>
+        <v>4.058807079957682E-4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
-        <v>-1.7326270937843946</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>-99.262206202907961</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="7"/>
-        <v>-1.0074327765351485E-2</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="8"/>
-        <v>-33.068731130099778</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="9"/>
-        <v>-3.0240047495798266E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.3252905761077559E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1078,51 +874,35 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6493361431346412</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>428.67445350524503</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>406.48095209589621</v>
+        <f t="shared" si="4"/>
+        <v>4.0648095209589618E-4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
-        <v>-0.93754337176231006</v>
+        <f t="shared" si="5"/>
+        <v>4.064809632894858E-4</v>
       </c>
       <c r="I13">
-        <f>1/+H13</f>
-        <v>-1.0666173215221921</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>-61.106506350006384</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="7"/>
-        <v>-1.6364869466962997E-2</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="8"/>
-        <v>-53.717278312445089</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="9"/>
-        <v>-1.8615984119365228E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.3287294386854642E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>49</v>
       </c>
@@ -1130,51 +910,35 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.81666666666666665</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8166666666666664</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7845991601642017</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>420.20937577895194</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>414.66947203877214</v>
+        <f t="shared" si="4"/>
+        <v>4.1466947203877211E-4</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>-2.0756744310477054E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.1466948392256223E-4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
-        <v>-48.177112221556143</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>-2760.0667591729516</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>-3.6231007698511177E-4</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="8"/>
-        <v>-1.1892738454225193</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="9"/>
-        <v>-0.84084923236895448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.3756414733923589E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1182,51 +946,35 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.333333333333333</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9198621771937623</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>404.06782693794065</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>431.23453139158772</v>
+        <f t="shared" si="4"/>
+        <v>4.312345313915877E-4</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>-0.74219378297705496</v>
+        <f t="shared" si="5"/>
+        <v>4.3123454475721591E-4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
-        <v>-1.347357015022201</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>-77.190083390621893</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="7"/>
-        <v>-1.2955031994712079E-2</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="8"/>
-        <v>-42.524571345433813</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="9"/>
-        <v>-2.3515816111980108E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.47054270691409E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>51</v>
       </c>
@@ -1234,51 +982,35 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.85</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0551251942233226</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>380.54468410910812</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>457.8910369170743</v>
+        <f t="shared" si="4"/>
+        <v>4.5789103691707425E-4</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>-0.70433825923153193</v>
+        <f t="shared" si="5"/>
+        <v>4.5789105291763554E-4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
-        <v>-1.4197723705809333</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
-        <v>-81.338759110581663</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
-        <v>-1.2294261812384919E-2</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="8"/>
-        <v>-40.355609603558072</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="9"/>
-        <v>-2.4779702495482364E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.6232578421651338E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1286,51 +1018,35 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3666666666666671</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1903882112528836</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350.06967289321727</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>497.75234329753368</v>
+        <f t="shared" si="4"/>
+        <v>4.9775234329753359E-4</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
-        <v>0.98198679992934534</v>
+        <f t="shared" si="5"/>
+        <v>4.9775236385117322E-4</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
-        <v>1.0183436275028857</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>58.340906419640319</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="7"/>
-        <v>1.7140631871693932E-2</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
-        <v>56.263699173509053</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="9"/>
-        <v>1.7773449216628035E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>2.8516232925033712E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>53</v>
       </c>
@@ -1338,51 +1054,35 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.8833333333333333</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8833333333333329</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3256512282824437</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>313.19951704943225</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>556.3482397468016</v>
+        <f t="shared" si="4"/>
+        <v>5.5634823974680153E-4</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
-        <v>-0.28244320400979089</v>
+        <f t="shared" si="5"/>
+        <v>5.5634826844726867E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
-        <v>-3.5405348254204587</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>-202.83724014833808</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="7"/>
-        <v>-4.9300611626774465E-3</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="8"/>
-        <v>-16.182803541913508</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="9"/>
-        <v>-6.1793989985109633E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>3.1873192299344023E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1390,51 +1090,35 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4609142453120043</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270.60776815143021</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>643.91351804243857</v>
+        <f t="shared" si="4"/>
+        <v>6.4391351804243856E-4</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
-        <v>0.11273576751824141</v>
+        <f t="shared" si="5"/>
+        <v>6.4391356253951299E-4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
-        <v>8.8702993026431756</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>508.17944704842751</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="7"/>
-        <v>1.9678088238478169E-3</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="8"/>
-        <v>6.4592836789632679</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="9"/>
-        <v>0.15481592846848036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>3.6889807997888699E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>55</v>
       </c>
@@ -1442,51 +1126,35 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9166666666666661</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5961772623415649</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>223.07250100902436</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>781.12720847179105</v>
+        <f t="shared" si="4"/>
+        <v>7.81127208471791E-4</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
-        <v>0.90413991260924476</v>
+        <f t="shared" si="5"/>
+        <v>7.8112728790720551E-4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
-        <v>1.1060235103592695</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="6"/>
-        <v>63.364086908482548</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="7"/>
-        <v>1.578181030911581E-2</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="8"/>
-        <v>51.80340108183681</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="9"/>
-        <v>1.9303751860234863E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>4.4750782324203806E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1494,51 +1162,35 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.433333333333334</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7314402793711254</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171.462099637856</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>1016.247907660224</v>
+        <f t="shared" si="4"/>
+        <v>1.016247907660224E-3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
-        <v>-0.99835790051852713</v>
+        <f t="shared" si="5"/>
+        <v>1.016248082583638E-3</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
-        <v>-1.001644800407369</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="6"/>
-        <v>-57.384230615338168</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="7"/>
-        <v>-1.7426390304041316E-2</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="8"/>
-        <v>-57.201694143253306</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="9"/>
-        <v>-1.7481999702590026E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>5.8220852651216626E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>57</v>
       </c>
@@ -1546,51 +1198,35 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.95</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.866703296400686</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116.71939344198205</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
-        <v>1492.8795880576076</v>
+        <f t="shared" si="4"/>
+        <v>1.4928795880576075E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
-        <v>-0.58353719924535341</v>
+        <f t="shared" si="5"/>
+        <v>1.4928801425856651E-3</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
-        <v>-1.7136868074447147</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="6"/>
-        <v>-98.177117198507702</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="7"/>
-        <v>-1.0185672879129925E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="8"/>
-        <v>-33.43421870564336</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="9"/>
-        <v>-2.9909477137900341E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>8.5527103368732746E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1598,51 +1234,35 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.466666666666667</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0019663134302466</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.844433412828266</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
-        <v>2911.6826756128694</v>
+        <f t="shared" si="4"/>
+        <v>2.9116826756128691E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
-        <v>0.54275536244537137</v>
+        <f t="shared" si="5"/>
+        <v>2.9116867897857183E-3</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
-        <v>1.8424507046683496</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="6"/>
-        <v>105.55400087044974</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="7"/>
-        <v>9.4738237466463864E-3</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="8"/>
-        <v>31.09759157621308</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="9"/>
-        <v>3.215683110215236E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>0.16681053618682379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>59</v>
       </c>
@@ -1650,51 +1270,35 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.98333333333333328</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.983333333333333</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1372293304598067</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8762229924413434</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
-        <v>92871.689933438203</v>
+        <f t="shared" si="4"/>
+        <v>9.2871689933438195E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
-        <v>-7.2029552764640528E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.3005716174647465E-2</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
-        <v>-13.88319046305258</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="6"/>
-        <v>-795.36798162828234</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="7"/>
-        <v>-1.2572796782098189E-3</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="8"/>
-        <v>-4.1269893736287733</v>
-      </c>
-      <c r="M24">
-        <f>1/+L24</f>
-        <v>-0.24230738426174367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <f t="shared" si="6"/>
+        <v>5.3282974796455536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1702,54 +1306,38 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.25</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2070425005395804</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-28.123345568961433</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
-        <v>-6195.8489103910269</v>
+        <f t="shared" si="4"/>
+        <v>-6.1958489103910259E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
-        <v>-0.58768734175236614</v>
+        <f t="shared" si="5"/>
+        <v>-6.1958885526786408E-3</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
-        <v>-1.7015850588481283</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
-        <v>-97.483808021409274</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="7"/>
-        <v>-1.0258113837534754E-2</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="8"/>
-        <v>-33.672004355673032</v>
-      </c>
-      <c r="M25">
-        <f>1/+L25</f>
-        <v>-2.9698261779641306E-2</v>
+        <f t="shared" si="6"/>
+        <v>-0.35496245518295932</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
